--- a/excel/04/seiseki.xlsx
+++ b/excel/04/seiseki.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u5173009\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-learn\Desktop\excel2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,19 +81,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,9 +196,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -217,9 +231,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -402,17 +416,17 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -432,7 +446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -452,7 +466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -472,7 +486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -492,7 +506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -512,7 +526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -532,7 +546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -552,7 +566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -572,7 +586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -592,7 +606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -612,7 +626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -632,7 +646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -652,7 +666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -672,7 +686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -692,7 +706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -712,7 +726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -732,7 +746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -752,7 +766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -772,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
@@ -792,7 +806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
@@ -812,7 +826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
@@ -832,7 +846,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>21</v>
       </c>
@@ -852,7 +866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>22</v>
       </c>
@@ -872,7 +886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>23</v>
       </c>
@@ -892,7 +906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>24</v>
       </c>
@@ -912,7 +926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>25</v>
       </c>
@@ -932,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>26</v>
       </c>
@@ -952,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>27</v>
       </c>
@@ -972,7 +986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>28</v>
       </c>
@@ -992,7 +1006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1033,36 +1047,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>